--- a/train/דוגמת אקסל לנתן .xlsx
+++ b/train/דוגמת אקסל לנתן .xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\רכבת\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\train\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282B3BE0-6B81-4F71-B301-DFA8E8A993D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63F3A05-6E24-4D4D-A132-156DB18A3976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="datasheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="אלמנטים" sheetId="1" r:id="rId1"/>
+    <sheet name="רכבת" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -187,22 +187,22 @@
     <t>הכנת לחצן וקרוסלה בתיקון</t>
   </si>
   <si>
-    <t>רכבת</t>
-  </si>
-  <si>
-    <t>כרטיס פיקוד רמזורים</t>
-  </si>
-  <si>
-    <t>מספר רכבות</t>
-  </si>
-  <si>
-    <t>מספר רמזורים</t>
-  </si>
-  <si>
-    <t>כרטיס ראשי</t>
-  </si>
-  <si>
-    <t>feedback</t>
+    <t>Digital Control System</t>
+  </si>
+  <si>
+    <t>decoder</t>
+  </si>
+  <si>
+    <t>signalmodule</t>
+  </si>
+  <si>
+    <t>feedback decoder</t>
+  </si>
+  <si>
+    <t>רכבות</t>
+  </si>
+  <si>
+    <t>רמזורם</t>
   </si>
 </sst>
 </file>
@@ -299,6 +299,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -306,9 +309,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -643,7 +643,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -660,7 +660,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="8" t="s">
         <v>40</v>
       </c>
@@ -675,7 +675,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="8" t="s">
         <v>34</v>
       </c>
@@ -691,7 +691,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -708,7 +708,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
@@ -723,7 +723,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -741,7 +741,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
@@ -756,7 +756,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="11" t="s">
         <v>35</v>
       </c>
@@ -786,7 +786,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -806,7 +806,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
@@ -824,7 +824,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
@@ -839,7 +839,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
@@ -854,7 +854,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="8" t="s">
         <v>39</v>
       </c>
@@ -873,7 +873,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
@@ -888,7 +888,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="8" t="s">
         <v>36</v>
       </c>
@@ -906,7 +906,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="8" t="s">
         <v>37</v>
       </c>
@@ -921,7 +921,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
@@ -936,7 +936,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -953,7 +953,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -964,7 +964,7 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -981,7 +981,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -992,7 +992,7 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1009,7 +1009,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="3" t="s">
         <v>44</v>
       </c>
@@ -1024,7 +1024,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
@@ -1044,7 +1044,7 @@
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -1064,7 +1064,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="6" t="s">
         <v>31</v>
       </c>
@@ -1079,7 +1079,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="6" t="s">
         <v>16</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -1119,7 +1119,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="3" t="s">
         <v>32</v>
       </c>
@@ -1151,51 +1151,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385736DC-03E8-4044-A0BE-FB37A6134A3E}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="14" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="15" t="s">
+    <row r="1" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>53</v>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D2" s="5">
+        <v>1</v>
       </c>
       <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5">
         <v>5</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/train/דוגמת אקסל לנתן .xlsx
+++ b/train/דוגמת אקסל לנתן .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\train\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63F3A05-6E24-4D4D-A132-156DB18A3976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD08138-3B26-4ADB-8293-5B6E50DBB571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="אלמנטים" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t xml:space="preserve">אזור </t>
   </si>
@@ -203,6 +203,15 @@
   </si>
   <si>
     <t>רמזורם</t>
+  </si>
+  <si>
+    <t>מנוף</t>
+  </si>
+  <si>
+    <t>נדנדה</t>
+  </si>
+  <si>
+    <t>משאית</t>
   </si>
 </sst>
 </file>
@@ -270,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -300,6 +309,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -591,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J39"/>
+  <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,7 +655,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -660,7 +672,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="8" t="s">
         <v>40</v>
       </c>
@@ -675,7 +687,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="8" t="s">
         <v>34</v>
       </c>
@@ -691,7 +703,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -708,7 +720,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
@@ -723,7 +735,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -741,7 +753,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
@@ -756,7 +768,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
@@ -771,7 +783,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="11" t="s">
         <v>35</v>
       </c>
@@ -786,7 +798,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -806,7 +818,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
@@ -824,7 +836,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
@@ -839,7 +851,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
@@ -854,7 +866,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="8" t="s">
         <v>39</v>
       </c>
@@ -873,7 +885,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
@@ -888,7 +900,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="8" t="s">
         <v>36</v>
       </c>
@@ -906,7 +918,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="8" t="s">
         <v>37</v>
       </c>
@@ -921,7 +933,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
@@ -936,7 +948,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -953,7 +965,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -964,7 +976,7 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -981,7 +993,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -992,7 +1004,7 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1009,7 +1021,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="3" t="s">
         <v>44</v>
       </c>
@@ -1024,112 +1036,157 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="3">
-        <v>2</v>
-      </c>
-      <c r="E32" s="3">
-        <v>6</v>
+      <c r="A32" s="15"/>
+      <c r="B32" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13">
+        <v>10</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="13">
+        <v>10</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="13">
+        <v>1</v>
+      </c>
+      <c r="E34" s="13">
+        <v>10</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6">
         <v>7</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="6" t="s">
+    <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="6">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6">
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
         <v>7</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="6" t="s">
+    <row r="39" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D39" s="6">
         <v>2</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E39" s="6">
         <v>7</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+      <c r="H39" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
         <v>8</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="3" t="s">
+    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3">
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
         <v>9</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1138,11 +1195,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A14:A22"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A41:A42"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A30:A35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1153,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385736DC-03E8-4044-A0BE-FB37A6134A3E}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
